--- a/CashFlow/IT_cashflow.xlsx
+++ b/CashFlow/IT_cashflow.xlsx
@@ -74,10 +74,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="27.500000000000004"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="5" max="5" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="14.3"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="14.3"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="14.3"/>
+    <col min="5" max="5" bestFit="1" customWidth="1" width="14.3"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="14.3"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="14.3"/>
     <col min="8" max="8" bestFit="1" customWidth="1" width="14.3"/>
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1860000000.0</v>
+        <v>111939000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>2533000000.0</v>
+        <v>82607000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1831892000.0</v>
+        <v>40688000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1204859000.0</v>
+        <v>-105927000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>529706000.0</v>
+        <v>-54613000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-47737000.0</v>
